--- a/صيدليات دكتور مصطفي طلعت_2026-01-07_15-54.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-07_15-54.xlsx
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>3:0</t>
+  </si>
+  <si>
+    <t>DROSPADIOL 0.03/3MG 21 F.C.TAB.</t>
   </si>
   <si>
     <t>DURICEF 500MG/5ML SUSP. 60ML</t>
@@ -985,13 +988,13 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
@@ -1017,7 +1020,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
@@ -1037,13 +1040,13 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
@@ -1055,7 +1058,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1063,17 +1066,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1081,7 +1084,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1089,17 +1092,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1107,7 +1110,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1115,17 +1118,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1133,7 +1136,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1141,17 +1144,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1173,7 +1176,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>36.5</v>
+        <v>92</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
@@ -1193,13 +1196,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>35</v>
+        <v>36.5</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
@@ -1211,7 +1214,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1219,13 +1222,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1245,17 +1248,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1263,7 +1266,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1271,17 +1274,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1297,17 +1300,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1315,7 +1318,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1323,17 +1326,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1341,7 +1344,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1349,17 +1352,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1375,13 +1378,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>28.199999999999999</v>
+        <v>23</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
@@ -1393,7 +1396,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1401,13 +1404,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>23</v>
+        <v>28.199999999999999</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
@@ -1419,7 +1422,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1427,17 +1430,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1453,13 +1456,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1485,11 +1488,11 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1505,17 +1508,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1531,17 +1534,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1549,7 +1552,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1557,17 +1560,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1575,7 +1578,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1583,7 +1586,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
@@ -1601,7 +1604,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1609,13 +1612,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1635,13 +1638,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1653,7 +1656,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1661,17 +1664,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>11.67</v>
+        <v>20</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1679,7 +1682,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1687,17 +1690,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>12</v>
+        <v>11.67</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1705,7 +1708,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1713,17 +1716,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1739,7 +1742,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
@@ -1749,7 +1752,7 @@
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1757,7 +1760,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1765,17 +1768,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>133.65000000000001</v>
+        <v>20</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1791,17 +1794,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>15</v>
+        <v>133.65000000000001</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1817,13 +1820,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -1835,7 +1838,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1843,13 +1846,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -1869,13 +1872,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -1895,7 +1898,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
@@ -1921,51 +1924,77 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" ht="26.25" customHeight="1">
-      <c r="K47" s="10">
-        <v>1474.52</v>
-      </c>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="6">
+        <v>44</v>
+      </c>
+      <c t="s" r="B47" s="7">
         <v>76</v>
       </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c t="s" r="F48" s="12">
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c t="s" r="H47" s="8">
+        <v>20</v>
+      </c>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="9">
+        <v>80</v>
+      </c>
+      <c r="M47" s="9"/>
+      <c t="s" r="N47" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" ht="25.5" customHeight="1">
+      <c r="K48" s="10">
+        <v>1561.52</v>
+      </c>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+    </row>
+    <row r="49" ht="17.25" customHeight="1">
+      <c t="s" r="A49" s="11">
         <v>77</v>
       </c>
-      <c r="G48" s="12"/>
-      <c r="H48" s="13"/>
-      <c t="s" r="I48" s="14">
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c t="s" r="F49" s="12">
         <v>78</v>
       </c>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="13"/>
+      <c t="s" r="I49" s="14">
+        <v>79</v>
+      </c>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="140">
+  <mergeCells count="143">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2102,10 +2131,13 @@
     <mergeCell ref="B46:G46"/>
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="I49:N49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
